--- a/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_8.qasm_rb2_archsize3_mini_dis.xlsx
+++ b/results/yq_test/Wstate_cz/Rb2Re4/cz_2q_wstate_indep_qiskit_8.qasm_rb2_archsize3_mini_dis.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:N30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,7 +477,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.005583763122558594</v>
+        <v>0.000637054443359375</v>
       </c>
     </row>
     <row r="6">
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.0002450942993164062</v>
+        <v>0.0007250308990478516</v>
       </c>
     </row>
     <row r="7">
@@ -497,13 +497,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.0002191066741943359</v>
+        <v>0.004117012023925781</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>[(2, 0), (2, 1), (1, 2), (1, 0), (1, 1), (0, 2), (0, 1), (0, 0)]</t>
+          <t>[[2, 0], [2, 1], [1, 2], [1, 0], [1, 1], [0, 2], [0, 1], [0, 0]]</t>
         </is>
       </c>
     </row>
@@ -628,110 +628,120 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Movement times</t>
+          <t>move_fidelity</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>parallel times</t>
+          <t>Movement times</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>partitions</t>
+          <t>parallel times</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>total time:</t>
+          <t>partitions</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.008958339691162109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>total time:</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.00968623161315918</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
           <t>T_cz</t>
         </is>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B30" t="inlineStr">
         <is>
           <t>0.2</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="C30" t="inlineStr">
         <is>
           <t>T_eff</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="D30" t="inlineStr">
         <is>
           <t>1500000.0</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>T_trans</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>AOD_width</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>AOD_height</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>Move_speed</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>0.55</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>F_cz</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>0.995</t>
         </is>
